--- a/Empirical Application/Estimates/emp_app_lasso_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_lasso_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>43.71704676354137</v>
+        <v>45.28758146411493</v>
       </c>
       <c r="D2">
-        <v>1.320566283344224</v>
+        <v>1.094427627597882</v>
       </c>
       <c r="E2">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F2">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H2">
-        <v>0.003806612150890809</v>
+        <v>0.001577376901875192</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>44.11199709794938</v>
+        <v>45.5371153469268</v>
       </c>
       <c r="D3">
-        <v>1.311570208349473</v>
+        <v>1.095514023907903</v>
       </c>
       <c r="E3">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F3">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H3">
-        <v>0.00378068042083132</v>
+        <v>0.00157894270339783</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>44.42553111397293</v>
+        <v>45.66248928860445</v>
       </c>
       <c r="D4">
-        <v>1.302860763060659</v>
+        <v>1.097701128781751</v>
       </c>
       <c r="E4">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F4">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H4">
-        <v>0.003755574918228331</v>
+        <v>0.00158209493441155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.7136998832969</v>
+        <v>45.75869591080524</v>
       </c>
       <c r="D5">
-        <v>1.289869738982405</v>
+        <v>1.098827337062335</v>
       </c>
       <c r="E5">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F5">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H5">
-        <v>0.003718127505907941</v>
+        <v>0.001583718116140243</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>44.94419940475697</v>
+        <v>45.86231937162981</v>
       </c>
       <c r="D6">
-        <v>1.273117369396847</v>
+        <v>1.098948663949786</v>
       </c>
       <c r="E6">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F6">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G6">
-        <v>0.007669704007597522</v>
+        <v>0.003592111921968</v>
       </c>
       <c r="H6">
-        <v>0.00366983778775831</v>
+        <v>0.001583892982184389</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>45.19328700509713</v>
+        <v>45.96269591866023</v>
       </c>
       <c r="D7">
-        <v>1.253147268228458</v>
+        <v>1.098081784421623</v>
       </c>
       <c r="E7">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F7">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G7">
-        <v>0.006758061919673475</v>
+        <v>0.002659878573333962</v>
       </c>
       <c r="H7">
-        <v>0.003612272763782687</v>
+        <v>0.001582643565859406</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.47154004545509</v>
+        <v>46.04980547901931</v>
       </c>
       <c r="D8">
-        <v>1.230730304135244</v>
+        <v>1.096276045309405</v>
       </c>
       <c r="E8">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F8">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G8">
-        <v>0.006537555821763519</v>
+        <v>0.002420726190092903</v>
       </c>
       <c r="H8">
-        <v>0.003547654509493162</v>
+        <v>0.001580040989777991</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.74482884445112</v>
+        <v>46.13361924281701</v>
       </c>
       <c r="D9">
-        <v>1.206339579992191</v>
+        <v>1.093617322841926</v>
       </c>
       <c r="E9">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F9">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G9">
-        <v>0.006444556007213898</v>
+        <v>0.002343270825073596</v>
       </c>
       <c r="H9">
-        <v>0.003477346772529859</v>
+        <v>0.001576209025650859</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>46.05004903386875</v>
+        <v>46.21031578162828</v>
       </c>
       <c r="D10">
-        <v>1.180564540446716</v>
+        <v>1.090141167770724</v>
       </c>
       <c r="E10">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F10">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G10">
-        <v>0.006911560181948629</v>
+        <v>0.002174977562490454</v>
       </c>
       <c r="H10">
-        <v>0.003403048662725763</v>
+        <v>0.00157119891207333</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>46.42829980307964</v>
+        <v>46.28677023037508</v>
       </c>
       <c r="D11">
-        <v>1.154383124125296</v>
+        <v>1.085841886343027</v>
       </c>
       <c r="E11">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F11">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G11">
-        <v>0.007718829987390663</v>
+        <v>0.002025464448217829</v>
       </c>
       <c r="H11">
-        <v>0.003327579147296169</v>
+        <v>0.001565002442752106</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>46.80313777329904</v>
+        <v>46.34096821021711</v>
       </c>
       <c r="D12">
-        <v>1.129015891346891</v>
+        <v>1.080755204927368</v>
       </c>
       <c r="E12">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F12">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G12">
-        <v>0.008322485799024681</v>
+        <v>0.001819767069986256</v>
       </c>
       <c r="H12">
-        <v>0.003254456565153444</v>
+        <v>0.001557671109395812</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.22385810665256</v>
+        <v>46.37546130218232</v>
       </c>
       <c r="D13">
-        <v>1.106146185870081</v>
+        <v>1.074929498771039</v>
       </c>
       <c r="E13">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F13">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G13">
-        <v>0.009243932888758976</v>
+        <v>0.001511512871033194</v>
       </c>
       <c r="H13">
-        <v>0.003188533256453742</v>
+        <v>0.001549274634291949</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.51781271266089</v>
+        <v>46.40858391937059</v>
       </c>
       <c r="D14">
-        <v>1.086979598480647</v>
+        <v>1.068420086813939</v>
       </c>
       <c r="E14">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F14">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G14">
-        <v>0.009173522992450866</v>
+        <v>0.001239175860889441</v>
       </c>
       <c r="H14">
-        <v>0.003133284409525009</v>
+        <v>0.001539892747534891</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>47.73614581518235</v>
+        <v>46.4482812369382</v>
       </c>
       <c r="D15">
-        <v>1.071267026122549</v>
+        <v>1.061290574424585</v>
       </c>
       <c r="E15">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F15">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G15">
-        <v>0.008174037575641923</v>
+        <v>0.001009443791019482</v>
       </c>
       <c r="H15">
-        <v>0.003087991969747872</v>
+        <v>0.001529617122284747</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>47.87458416390776</v>
+        <v>46.48376441678862</v>
       </c>
       <c r="D16">
-        <v>1.058588428046889</v>
+        <v>1.053580552026047</v>
       </c>
       <c r="E16">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F16">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G16">
-        <v>0.006696539941304503</v>
+        <v>0.0008924762910718975</v>
       </c>
       <c r="H16">
-        <v>0.003051445144268693</v>
+        <v>0.001518504819435551</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>47.95341464802505</v>
+        <v>46.51396115648053</v>
       </c>
       <c r="D17">
-        <v>1.048395832016544</v>
+        <v>1.045321154889787</v>
       </c>
       <c r="E17">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F17">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G17">
-        <v>0.004559728383578099</v>
+        <v>0.0008656240893638145</v>
       </c>
       <c r="H17">
-        <v>0.003022064369984516</v>
+        <v>0.001506600713638491</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>47.94224078090554</v>
+        <v>46.5404600343286</v>
       </c>
       <c r="D18">
-        <v>1.040002970495606</v>
+        <v>1.036627350608865</v>
       </c>
       <c r="E18">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F18">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G18">
-        <v>0.002652675426529072</v>
+        <v>0.00082422571848757</v>
       </c>
       <c r="H18">
-        <v>0.002997871439232535</v>
+        <v>0.001494070505412435</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>47.88591013748588</v>
+        <v>46.56614020303416</v>
       </c>
       <c r="D19">
-        <v>1.033556632164072</v>
+        <v>1.027600807243594</v>
       </c>
       <c r="E19">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F19">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G19">
-        <v>0.0009360270143970783</v>
+        <v>0.0007366185380997426</v>
       </c>
       <c r="H19">
-        <v>0.002979289479257434</v>
+        <v>0.001481060726922646</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.87613830683097</v>
+        <v>46.59337677304651</v>
       </c>
       <c r="D20">
-        <v>1.029184944403348</v>
+        <v>1.018303687478958</v>
       </c>
       <c r="E20">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F20">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G20">
-        <v>9.713393270027737E-06</v>
+        <v>0.0006850772266118188</v>
       </c>
       <c r="H20">
-        <v>0.002966687824982475</v>
+        <v>0.001467660972017983</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.81467506131229</v>
+        <v>46.62943851027766</v>
       </c>
       <c r="D21">
-        <v>1.026539312452423</v>
+        <v>1.008808762998774</v>
       </c>
       <c r="E21">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F21">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G21">
-        <v>-0.0008671224169547465</v>
+        <v>0.0007217334612320325</v>
       </c>
       <c r="H21">
-        <v>0.002959061630933606</v>
+        <v>0.00145397612508757</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.71834263920449</v>
+        <v>46.66541482870353</v>
       </c>
       <c r="D22">
-        <v>1.025579752502671</v>
+        <v>0.9992365528780871</v>
       </c>
       <c r="E22">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F22">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G22">
-        <v>-0.001399363385631602</v>
+        <v>0.0007809674648433073</v>
       </c>
       <c r="H22">
-        <v>0.002956295641365113</v>
+        <v>0.001440179887891505</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>47.63855209938505</v>
+        <v>46.69598553439324</v>
       </c>
       <c r="D23">
-        <v>1.025968399092534</v>
+        <v>0.989677658314861</v>
       </c>
       <c r="E23">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F23">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G23">
-        <v>-0.001545987738130172</v>
+        <v>0.0008115333209942399</v>
       </c>
       <c r="H23">
-        <v>0.002957415938657292</v>
+        <v>0.001426402842145147</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>47.57902019461672</v>
+        <v>46.72904266485335</v>
       </c>
       <c r="D24">
-        <v>1.027665598354349</v>
+        <v>0.9802325163955323</v>
       </c>
       <c r="E24">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F24">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G24">
-        <v>-0.00185698820133906</v>
+        <v>0.0008479118237927797</v>
       </c>
       <c r="H24">
-        <v>0.002962308218139203</v>
+        <v>0.001412789745835452</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>47.49089757959979</v>
+        <v>46.77012887635697</v>
       </c>
       <c r="D25">
-        <v>1.03050970698594</v>
+        <v>0.9710594804591449</v>
       </c>
       <c r="E25">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F25">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G25">
-        <v>-0.002023609260703152</v>
+        <v>0.0008793147879956997</v>
       </c>
       <c r="H25">
-        <v>0.002970506533219648</v>
+        <v>0.001399568830499198</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>47.36365200445707</v>
+        <v>46.82038899000079</v>
       </c>
       <c r="D26">
-        <v>1.033720047686659</v>
+        <v>0.9623451297595589</v>
       </c>
       <c r="E26">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F26">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G26">
-        <v>-0.002216816467171334</v>
+        <v>0.0009685885081078371</v>
       </c>
       <c r="H26">
-        <v>0.002979760534381111</v>
+        <v>0.001387009009126142</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>47.25134160877099</v>
+        <v>46.86122100607543</v>
       </c>
       <c r="D27">
-        <v>1.036928375758689</v>
+        <v>0.9543299833803693</v>
       </c>
       <c r="E27">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F27">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G27">
-        <v>-0.00242006556633787</v>
+        <v>0.001032721698013717</v>
       </c>
       <c r="H27">
-        <v>0.002989008734018697</v>
+        <v>0.001375456937116198</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>47.12328282187708</v>
+        <v>46.84102579755151</v>
       </c>
       <c r="D28">
-        <v>1.040523394309265</v>
+        <v>0.9471861918669109</v>
       </c>
       <c r="E28">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F28">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G28">
-        <v>-0.002848358579622712</v>
+        <v>0.0006998945793634803</v>
       </c>
       <c r="H28">
-        <v>0.002999371592339331</v>
+        <v>0.001365160731646793</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.98690601322991</v>
+        <v>46.78413073235275</v>
       </c>
       <c r="D29">
-        <v>1.044617879382446</v>
+        <v>0.9409251040856019</v>
       </c>
       <c r="E29">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F29">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G29">
-        <v>-0.003149947289811728</v>
+        <v>8.751159997362201E-05</v>
       </c>
       <c r="H29">
-        <v>0.003011174193108253</v>
+        <v>0.001356136749614718</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.80105948414982</v>
+        <v>46.71905914408951</v>
       </c>
       <c r="D30">
-        <v>1.049775824121215</v>
+        <v>0.9354308568396893</v>
       </c>
       <c r="E30">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F30">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G30">
-        <v>-0.003516203251920347</v>
+        <v>-0.0006333115369454578</v>
       </c>
       <c r="H30">
-        <v>0.003026042280658163</v>
+        <v>0.001348217999685209</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.58397327204395</v>
+        <v>46.62505494295308</v>
       </c>
       <c r="D31">
-        <v>1.056320276889091</v>
+        <v>0.9306349771279123</v>
       </c>
       <c r="E31">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F31">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G31">
-        <v>-0.004171052104544026</v>
+        <v>-0.001476037894514715</v>
       </c>
       <c r="H31">
-        <v>0.003044907061427849</v>
+        <v>0.001341305793075318</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.37295580089503</v>
+        <v>46.51501230648119</v>
       </c>
       <c r="D32">
-        <v>1.064387607106784</v>
+        <v>0.9264227810032152</v>
       </c>
       <c r="E32">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F32">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G32">
-        <v>-0.004689543881137848</v>
+        <v>-0.002037584319189501</v>
       </c>
       <c r="H32">
-        <v>0.003068161628517166</v>
+        <v>0.001335234838079556</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>46.0617448677074</v>
+        <v>46.39952481909513</v>
       </c>
       <c r="D33">
-        <v>1.074262805100856</v>
+        <v>0.9227308977415154</v>
       </c>
       <c r="E33">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F33">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G33">
-        <v>-0.005782257159515724</v>
+        <v>-0.002403786957860143</v>
       </c>
       <c r="H33">
-        <v>0.003096627483772452</v>
+        <v>0.001329913799726196</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.73279992994311</v>
+        <v>46.26773503672658</v>
       </c>
       <c r="D34">
-        <v>1.086072039441136</v>
+        <v>0.9195760291204139</v>
       </c>
       <c r="E34">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F34">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G34">
-        <v>-0.006676622213791905</v>
+        <v>-0.00282077567101835</v>
       </c>
       <c r="H34">
-        <v>0.003130668315724171</v>
+        <v>0.001325366749957087</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.44033681174192</v>
+        <v>46.1063926835893</v>
       </c>
       <c r="D35">
-        <v>1.099311275779252</v>
+        <v>0.9169176509158008</v>
       </c>
       <c r="E35">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F35">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G35">
-        <v>-0.007147727876887666</v>
+        <v>-0.003241639121023621</v>
       </c>
       <c r="H35">
-        <v>0.003168831214890097</v>
+        <v>0.001321535282009216</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>45.14341998728412</v>
+        <v>45.94079475550275</v>
       </c>
       <c r="D36">
-        <v>1.113698275465105</v>
+        <v>0.914720317039019</v>
       </c>
       <c r="E36">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F36">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G36">
-        <v>-0.007684598835068179</v>
+        <v>-0.003588859693615243</v>
       </c>
       <c r="H36">
-        <v>0.00321030261129766</v>
+        <v>0.001318368308135804</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>44.80105162125408</v>
+        <v>45.77376318299743</v>
       </c>
       <c r="D37">
-        <v>1.128916024446403</v>
+        <v>0.9129214551639244</v>
       </c>
       <c r="E37">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F37">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G37">
-        <v>-0.007879332790333215</v>
+        <v>-0.003911010225610623</v>
       </c>
       <c r="H37">
-        <v>0.003254168692775007</v>
+        <v>0.001315775644080286</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>44.52880933395096</v>
+        <v>45.60019378764043</v>
       </c>
       <c r="D38">
-        <v>1.144589526870431</v>
+        <v>0.9115182466842471</v>
       </c>
       <c r="E38">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F38">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G38">
-        <v>-0.007524941224950954</v>
+        <v>-0.004172132806788431</v>
       </c>
       <c r="H38">
-        <v>0.003299348511105087</v>
+        <v>0.001313753227441174</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>44.30895950852386</v>
+        <v>45.42952518707338</v>
       </c>
       <c r="D39">
-        <v>1.159835308176326</v>
+        <v>0.9104793976809926</v>
       </c>
       <c r="E39">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F39">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G39">
-        <v>-0.00707110814511287</v>
+        <v>-0.004230421853224487</v>
       </c>
       <c r="H39">
-        <v>0.003343295397452871</v>
+        <v>0.001312255954911727</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>44.10321899270298</v>
+        <v>45.2789705102576</v>
       </c>
       <c r="D40">
-        <v>1.174249455603418</v>
+        <v>0.9096808042210028</v>
       </c>
       <c r="E40">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F40">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G40">
-        <v>-0.006501256216132134</v>
+        <v>-0.004136401532782186</v>
       </c>
       <c r="H40">
-        <v>0.003384845048865861</v>
+        <v>0.001311104957946728</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>43.934886627632</v>
+        <v>45.14877583654688</v>
       </c>
       <c r="D41">
-        <v>1.187613986013442</v>
+        <v>0.909012812726026</v>
       </c>
       <c r="E41">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F41">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G41">
-        <v>-0.005413531210138034</v>
+        <v>-0.003906170915315909</v>
       </c>
       <c r="H41">
-        <v>0.003423369115769125</v>
+        <v>0.001310142195011788</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>43.78773402696172</v>
+        <v>45.01926896007112</v>
       </c>
       <c r="D42">
-        <v>1.200452249328838</v>
+        <v>0.9085016295249514</v>
       </c>
       <c r="E42">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F42">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G42">
-        <v>-0.004631720668682737</v>
+        <v>-0.003630780172308157</v>
       </c>
       <c r="H42">
-        <v>0.003460376185954926</v>
+        <v>0.001309405436770613</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>43.66021407670067</v>
+        <v>44.88815791811079</v>
       </c>
       <c r="D43">
-        <v>1.21267307843828</v>
+        <v>0.9081685885562404</v>
       </c>
       <c r="E43">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F43">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G43">
-        <v>-0.004054658948894963</v>
+        <v>-0.003383545431016177</v>
       </c>
       <c r="H43">
-        <v>0.003495603464713061</v>
+        <v>0.001308925431406918</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.67019879788398</v>
+        <v>44.74360881564683</v>
       </c>
       <c r="D44">
-        <v>1.224580550406079</v>
+        <v>0.9080308203472265</v>
       </c>
       <c r="E44">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F44">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G44">
-        <v>-0.002706376217618755</v>
+        <v>-0.003346010591317317</v>
       </c>
       <c r="H44">
-        <v>0.00352992747256538</v>
+        <v>0.001308726868811064</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>43.67574667082108</v>
+        <v>44.58720843274148</v>
       </c>
       <c r="D45">
-        <v>1.236467788568689</v>
+        <v>0.9080899775323835</v>
       </c>
       <c r="E45">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F45">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G45">
-        <v>-0.001619624730068248</v>
+        <v>-0.003509796273783783</v>
       </c>
       <c r="H45">
-        <v>0.003564193155250942</v>
+        <v>0.001308812130892442</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>43.62147574080804</v>
+        <v>44.42866800776665</v>
       </c>
       <c r="D46">
-        <v>1.247601803971076</v>
+        <v>0.9083076087319119</v>
       </c>
       <c r="E46">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F46">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G46">
-        <v>-0.00103911428846053</v>
+        <v>-0.003691255951902938</v>
       </c>
       <c r="H46">
-        <v>0.003596287627791616</v>
+        <v>0.001309125798437565</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>43.54935948081305</v>
+        <v>44.24413273961265</v>
       </c>
       <c r="D47">
-        <v>1.257552832668763</v>
+        <v>0.9087105795497867</v>
       </c>
       <c r="E47">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F47">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G47">
-        <v>-0.0006928412242976023</v>
+        <v>-0.004025157365613374</v>
       </c>
       <c r="H47">
-        <v>0.003624972069634665</v>
+        <v>0.001309706592310286</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.51168345235568</v>
+        <v>44.0691822172473</v>
       </c>
       <c r="D48">
-        <v>1.266372783848226</v>
+        <v>0.9092721796156026</v>
       </c>
       <c r="E48">
-        <v>418.8658586894169</v>
+        <v>213.4456787721083</v>
       </c>
       <c r="F48">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G48">
-        <v>-0.0009907209095518343</v>
+        <v>-0.004215166239997048</v>
       </c>
       <c r="H48">
-        <v>0.003650396112148444</v>
+        <v>0.001310516015381827</v>
       </c>
     </row>
   </sheetData>
